--- a/data/city_features/city.xlsx
+++ b/data/city_features/city.xlsx
@@ -19,7 +19,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>province</t>
+    <t>city</t>
   </si>
   <si>
     <t>city_area</t>
@@ -37,7 +37,7 @@
     <t>An Giang</t>
   </si>
   <si>
-    <t>Bà Rịa - Vũng Tàu</t>
+    <t>Bà Rịa Vũng Tàu</t>
   </si>
   <si>
     <t>Bạc Liêu</t>
@@ -239,7 +239,7 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -253,7 +253,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +333,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
@@ -345,10 +348,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,14 +664,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="31.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="33.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="31.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -710,7 +716,7 @@
         <v>2316</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5">
       <c r="A3" s="6">
@@ -731,8 +737,8 @@
       <c r="F3" s="9">
         <v>14228</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
       <c r="A4" s="6">
@@ -753,8 +759,8 @@
       <c r="F4" s="9">
         <v>2605</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5">
       <c r="A5" s="6">
@@ -775,8 +781,8 @@
       <c r="F5" s="9">
         <v>3542</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="22.5">
       <c r="A6" s="6">
@@ -797,8 +803,8 @@
       <c r="F6" s="9">
         <v>1989</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="22.5">
       <c r="A7" s="6">
@@ -819,8 +825,8 @@
       <c r="F7" s="9">
         <v>7450</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5">
       <c r="A8" s="6">
@@ -841,8 +847,8 @@
       <c r="F8" s="9">
         <v>2106</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="22.5">
       <c r="A9" s="6">
@@ -863,8 +869,8 @@
       <c r="F9" s="9">
         <v>7339</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="22.5">
       <c r="A10" s="6">
@@ -885,8 +891,8 @@
       <c r="F10" s="9">
         <v>3038</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="22.5">
       <c r="A11" s="6">
@@ -907,8 +913,8 @@
       <c r="F11" s="9">
         <v>3657</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="22.5">
       <c r="A12" s="6">
@@ -929,8 +935,8 @@
       <c r="F12" s="9">
         <v>3320</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="22.5">
       <c r="A13" s="6">
@@ -951,8 +957,8 @@
       <c r="F13" s="9">
         <v>2617</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="22.5">
       <c r="A14" s="6">
@@ -973,8 +979,8 @@
       <c r="F14" s="9">
         <v>1712</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="22.5">
       <c r="A15" s="6">
@@ -995,8 +1001,8 @@
       <c r="F15" s="9">
         <v>3697</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="22.5">
       <c r="A16" s="6">
@@ -1017,8 +1023,8 @@
       <c r="F16" s="9">
         <v>4409</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="22.5">
       <c r="A17" s="6">
@@ -1039,8 +1045,8 @@
       <c r="F17" s="9">
         <v>2437</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="22.5">
       <c r="A18" s="6">
@@ -1061,8 +1067,8 @@
       <c r="F18" s="9">
         <v>2562</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="22.5">
       <c r="A19" s="6">
@@ -1083,8 +1089,8 @@
       <c r="F19" s="9">
         <v>1706</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="22.5">
       <c r="A20" s="6">
@@ -1105,8 +1111,8 @@
       <c r="F20" s="9">
         <v>5741</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="22.5">
       <c r="A21" s="6">
@@ -1127,8 +1133,8 @@
       <c r="F21" s="9">
         <v>2678</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="22.5">
       <c r="A22" s="6">
@@ -1149,8 +1155,8 @@
       <c r="F22" s="9">
         <v>2353</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="22.5">
       <c r="A23" s="6">
@@ -1171,8 +1177,8 @@
       <c r="F23" s="9">
         <v>1474</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="22.5">
       <c r="A24" s="6">
@@ -1193,8 +1199,8 @@
       <c r="F24" s="9">
         <v>3739</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="22.5">
       <c r="A25" s="6">
@@ -1215,8 +1221,8 @@
       <c r="F25" s="9">
         <v>6093</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="22.5">
       <c r="A26" s="6">
@@ -1237,8 +1243,8 @@
       <c r="F26" s="9">
         <v>3128</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="22.5">
       <c r="A27" s="6">
@@ -1259,8 +1265,8 @@
       <c r="F27" s="9">
         <v>3734</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="22.5">
       <c r="A28" s="6">
@@ -1281,8 +1287,8 @@
       <c r="F28" s="9">
         <v>7517</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="22.5">
       <c r="A29" s="6">
@@ -1303,8 +1309,8 @@
       <c r="F29" s="9">
         <v>2832</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="6">
@@ -1325,8 +1331,8 @@
       <c r="F30" s="9">
         <v>2832</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="6">
@@ -1347,8 +1353,8 @@
       <c r="F31" s="9">
         <v>4396</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="6">
@@ -1369,8 +1375,8 @@
       <c r="F32" s="9">
         <v>3305</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="6">
@@ -1391,8 +1397,8 @@
       <c r="F33" s="9">
         <v>2846</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="6">
@@ -1413,8 +1419,8 @@
       <c r="F34" s="9">
         <v>2253</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="6">
@@ -1435,8 +1441,8 @@
       <c r="F35" s="9">
         <v>2125</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="6">
@@ -1457,8 +1463,8 @@
       <c r="F36" s="9">
         <v>2223</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="6">
@@ -1479,8 +1485,8 @@
       <c r="F37" s="9">
         <v>3790</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="6">
@@ -1501,8 +1507,8 @@
       <c r="F38" s="9">
         <v>3338</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="6">
@@ -1523,8 +1529,8 @@
       <c r="F39" s="9">
         <v>3874</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="6">
@@ -1545,8 +1551,8 @@
       <c r="F40" s="9">
         <v>2106</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="6">
@@ -1567,8 +1573,8 @@
       <c r="F41" s="9">
         <v>2210</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="6">
@@ -1589,8 +1595,8 @@
       <c r="F42" s="9">
         <v>3481</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="6">
@@ -1611,8 +1617,8 @@
       <c r="F43" s="9">
         <v>3300</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="6">
@@ -1633,8 +1639,8 @@
       <c r="F44" s="9">
         <v>2532</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="6">
@@ -1655,8 +1661,8 @@
       <c r="F45" s="9">
         <v>2475</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="6">
@@ -1677,8 +1683,8 @@
       <c r="F46" s="9">
         <v>2356</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="6">
@@ -1699,8 +1705,8 @@
       <c r="F47" s="9">
         <v>3292</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="6">
@@ -1721,8 +1727,8 @@
       <c r="F48" s="9">
         <v>4197</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="6">
@@ -1743,8 +1749,8 @@
       <c r="F49" s="9">
         <v>8490</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="6">
@@ -1765,8 +1771,8 @@
       <c r="F50" s="9">
         <v>2700</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="6">
@@ -1787,8 +1793,8 @@
       <c r="F51" s="9">
         <v>2357</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="6">
@@ -1809,8 +1815,8 @@
       <c r="F52" s="9">
         <v>2132</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="6">
@@ -1831,8 +1837,8 @@
       <c r="F53" s="9">
         <v>3701</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="6">
@@ -1853,8 +1859,8 @@
       <c r="F54" s="9">
         <v>2531</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="6">
@@ -1875,8 +1881,8 @@
       <c r="F55" s="9">
         <v>4831</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="6">
@@ -1897,8 +1903,8 @@
       <c r="F56" s="9">
         <v>2917</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="6">
@@ -1919,8 +1925,8 @@
       <c r="F57" s="9">
         <v>6890</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="6">
@@ -1941,8 +1947,8 @@
       <c r="F58" s="9">
         <v>2449</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="6">
@@ -1963,8 +1969,8 @@
       <c r="F59" s="9">
         <v>2796</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="6">
@@ -1985,8 +1991,8 @@
       <c r="F60" s="9">
         <v>3054</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="6">
@@ -2007,8 +2013,8 @@
       <c r="F61" s="9">
         <v>2217</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="6">
@@ -2029,8 +2035,8 @@
       <c r="F62" s="9">
         <v>2965</v>
       </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="6">
@@ -2051,8 +2057,8 @@
       <c r="F63" s="9">
         <v>5494</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="6">
@@ -2073,8 +2079,8 @@
       <c r="F64" s="9">
         <v>2039</v>
       </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="10"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/city_features/city.xlsx
+++ b/data/city_features/city.xlsx
@@ -28,7 +28,7 @@
     <t>population</t>
   </si>
   <si>
-    <t xml:space="preserve"> GRDP (VND)</t>
+    <t>gdp</t>
   </si>
   <si>
     <t xml:space="preserve"> GRDP (USD)</t>
@@ -228,7 +228,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +266,12 @@
     <font>
       <sz val="13"/>
       <color rgb="FF202122"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -332,16 +338,16 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
